--- a/resources/timeGraph.xlsx
+++ b/resources/timeGraph.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willson\Documents\github\ArepAWSIntro\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="1695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,39 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
-    <t>index.html</t>
+    <t>numThreads</t>
   </si>
   <si>
-    <t>numThreads</t>
+    <t>Time result (seconds)</t>
+  </si>
+  <si>
+    <t>Index.html</t>
   </si>
   <si>
     <t>java.png</t>
   </si>
   <si>
-    <t>Time result (seconds)</t>
+    <t>Peticiones a heroku</t>
   </si>
   <si>
-    <t>0,892</t>
-  </si>
-  <si>
-    <t>0,766</t>
-  </si>
-  <si>
-    <t>2,16</t>
-  </si>
-  <si>
-    <t>0,877</t>
-  </si>
-  <si>
-    <t>73,84</t>
+    <t>Peticiones a localhost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,15 +60,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,22 +82,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -115,6 +134,4233 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Peticiones a index.html</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.905999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBD4-4B79-957B-406314AA4C33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="720702784"/>
+        <c:axId val="720705696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="720702784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>numThreads</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="720705696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="720705696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time result (seconds)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="720702784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Peticiones a java.png</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.012</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>73.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAD8-4C55-8A93-76E00ADC4431}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="650947248"/>
+        <c:axId val="650948080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="650947248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>numThreads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650948080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="650948080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time result (seconds)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650947248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Peticiones a index.html</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$19:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9020000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8744-4B93-B024-F0C55E48A0B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="718693152"/>
+        <c:axId val="718690240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="718693152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>numThreads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718690240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="718690240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time result (seconds)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718693152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Peticiones a java.png</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$19:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$19:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7859999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.677</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>76.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19C3-4F0D-A9A1-DD76FD4EA285}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="718691488"/>
+        <c:axId val="718691072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="718691488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>numThreads</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718691072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="718691072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time result (seconds)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718691488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,183 +4626,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:K13"/>
+  <dimension ref="D2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="2" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.1379999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3.0950000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5.2389999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9.1180000000000003</v>
+      </c>
+      <c r="H10" s="2">
+        <v>500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>22.012</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>16.751999999999999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="4">
+        <v>73.84</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>27.905999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="6"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="H5" t="s">
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E19" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="H19" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="H6" s="4">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="4"/>
+      <c r="I19" s="2">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="H7" s="4">
+      <c r="E20" s="3">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H20" s="2">
         <v>10</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3">
-        <v>1138</v>
-      </c>
-      <c r="K7" s="4"/>
+      <c r="I20" s="3">
+        <v>1.488</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
         <v>50</v>
       </c>
-      <c r="D8" s="2">
-        <v>1666</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="H8" s="4">
+      <c r="E21" s="3">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H21" s="2">
         <v>50</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3">
-        <v>3095</v>
-      </c>
-      <c r="K8" s="4"/>
+      <c r="I21" s="3">
+        <v>3.589</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
         <v>100</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="H9" s="4">
+      <c r="E22" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H22" s="2">
         <v>100</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3">
-        <v>5239</v>
-      </c>
-      <c r="K9" s="4"/>
+      <c r="I22" s="3">
+        <v>6.7859999999999996</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
         <v>500</v>
       </c>
-      <c r="D10" s="2">
-        <v>9118</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="H10" s="4">
+      <c r="E23" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="H23" s="2">
         <v>500</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3">
-        <v>22012</v>
-      </c>
-      <c r="K10" s="4"/>
+      <c r="I23" s="3">
+        <v>34.677</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
         <v>1000</v>
       </c>
-      <c r="D11" s="2">
-        <v>16752</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="H11" s="4">
+      <c r="E24" s="3">
+        <v>1.728</v>
+      </c>
+      <c r="H24" s="2">
         <v>1000</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="4"/>
+      <c r="I24" s="2">
+        <v>76.36</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
         <v>2000</v>
       </c>
-      <c r="D12" s="2">
-        <v>27906</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="E25" s="3">
+        <v>2.9020000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
+  <mergeCells count="6">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>